--- a/buko2.xlsx
+++ b/buko2.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9937f86877348e7/Documentos/GitHub/ds_insumos_wordcloud/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{BEEB0688-5384-4BA9-B883-1AC4EDCE9055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F56CFACC-7A64-400A-AD0B-DE6A80902AEE}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1056" yWindow="1536" windowWidth="18036" windowHeight="10740" xr2:uid="{E43EB664-DFF2-4942-8377-E8E8C84B8C3F}"/>
+    <workbookView xWindow="1050" yWindow="1530" windowWidth="18030" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>textos</t>
   </si>
@@ -49,13 +43,49 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/ds_insumos_wordcloud/main/discurso3.txt</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/ds_insumos_wordcloud/main/Discursos%20CoP%2026/1.txt</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/ds_insumos_wordcloud/main/Discursos%20CoP%2026/2.txt</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/ds_insumos_wordcloud/main/Discursos%20CoP%2026/3.txt</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/ds_insumos_wordcloud/main/Discursos%20CoP%2026/4.txt</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/ds_insumos_wordcloud/main/Discursos%20CoP%2026/5.txt</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/ds_insumos_wordcloud/main/Discursos%20CoP%2026/6.txt</t>
+  </si>
+  <si>
+    <t>Cop 1</t>
+  </si>
+  <si>
+    <t>Cop 2</t>
+  </si>
+  <si>
+    <t>Cop 3</t>
+  </si>
+  <si>
+    <t>Cop 4</t>
+  </si>
+  <si>
+    <t>Cop 5</t>
+  </si>
+  <si>
+    <t>Cop 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -244,7 +274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -438,26 +468,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A5D942-03C0-43FE-878D-B03196BAFD2B}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="64.44140625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="64.42578125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="64.44140625" style="2"/>
+    <col min="1" max="16384" width="64.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -465,7 +495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -473,7 +503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -481,7 +511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -489,23 +519,70 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{BE241D7B-5325-4402-B538-AFB2BEE70FD5}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{873335D2-9C4B-4E34-9BB1-B0FDAA046311}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{5D351A8B-43BB-4694-A3D9-ED5302AC2EC9}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId10"/>
 </worksheet>
 </file>